--- a/Тесты ВК.xlsx
+++ b/Тесты ВК.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Зайка\курсы Тестировщик\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Зайка\курсы Тестировщик\MyFirst_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29427BF-17FD-4AB4-9033-22AEDE095E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A424C-1336-43DE-9D3C-79AD07AB77CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="555" windowWidth="46140" windowHeight="25245" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="141">
   <si>
     <t>passed</t>
   </si>
@@ -136,9 +137,6 @@
     <t>Перейти на сайт vk.com;
 В поле "Телефон или e-mail" в поле "Пароль" ничего не вводить;
 Нажать кнопку "Войти"</t>
-  </si>
-  <si>
-    <t>Поле "Телеон или e-mail" на секунду подсветилось красным цветом</t>
   </si>
   <si>
     <t>Вход с телефоном из БД и неверным паролем</t>
@@ -1267,12 +1265,15 @@
   <si>
     <t>В описании фотографии появилась запись: "На этой фотографии: "выдуманные ФИ"без гиперссылки; при наведении на ФИ подсвечивается выделенное на фото место</t>
   </si>
+  <si>
+    <t>Поле "Телефон или e-mail" на секунду подсветилось красным цветом</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,6 +1460,14 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1688,9 +1697,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1717,6 +1723,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1732,20 +1753,8 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2144,10 +2153,10 @@
   <dimension ref="A1:DT69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2156,12 +2165,12 @@
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
@@ -2191,7 +2200,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="14">
         <f>COUNTIF(L$8:L$50,"failed")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="14">
@@ -2236,7 +2245,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="15">
         <f>COUNTIF(L$8:L$50,"passed")</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="15">
@@ -2279,7 +2288,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="20">
+        <v>43689</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="20"/>
       <c r="O3" s="11"/>
@@ -2363,43 +2374,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="42" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="42"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -2409,29 +2420,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="44"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="42"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="42"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="42"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="42"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2444,7 +2455,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -2461,7 +2472,9 @@
       <c r="I8" s="19"/>
       <c r="J8" s="18"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -2497,7 +2510,9 @@
       <c r="I9" s="25"/>
       <c r="J9" s="18"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -2526,14 +2541,16 @@
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="18"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -2556,132 +2573,134 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="29"/>
       <c r="J11" s="28"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="32"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="32"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="32"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="32"/>
-      <c r="AW11" s="33"/>
-      <c r="AX11" s="32"/>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="32"/>
-      <c r="BA11" s="33"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="33"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="32"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="32"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="32"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="32"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="32"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="32"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="32"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="34"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="32"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="35"/>
-      <c r="CE11" s="33"/>
-      <c r="CF11" s="32"/>
-      <c r="CG11" s="33"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="33"/>
-      <c r="CJ11" s="32"/>
-      <c r="CK11" s="33"/>
-      <c r="CL11" s="32"/>
-      <c r="CM11" s="33"/>
-      <c r="CN11" s="32"/>
-      <c r="CO11" s="33"/>
-      <c r="CP11" s="32"/>
-      <c r="CQ11" s="33"/>
-      <c r="CR11" s="32"/>
-      <c r="CS11" s="33"/>
-      <c r="CT11" s="32"/>
-      <c r="CU11" s="33"/>
-      <c r="CV11" s="32"/>
-      <c r="CW11" s="33"/>
-      <c r="CX11" s="32"/>
-      <c r="CY11" s="31"/>
-      <c r="CZ11" s="32"/>
-      <c r="DA11" s="31"/>
-      <c r="DB11" s="32"/>
-      <c r="DC11" s="31"/>
-      <c r="DD11" s="32"/>
-      <c r="DE11" s="31"/>
-      <c r="DF11" s="32"/>
-      <c r="DG11" s="31"/>
-      <c r="DH11" s="32"/>
-      <c r="DI11" s="31"/>
-      <c r="DJ11" s="32"/>
-      <c r="DK11" s="32"/>
-      <c r="DL11" s="32"/>
-      <c r="DM11" s="32"/>
-      <c r="DN11" s="36"/>
-      <c r="DO11" s="32"/>
-      <c r="DP11" s="37"/>
-      <c r="DQ11" s="37"/>
-      <c r="DR11" s="37"/>
-      <c r="DS11" s="37"/>
-      <c r="DT11" s="37"/>
+      <c r="L11" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="31"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="31"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="32"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="31"/>
+      <c r="BG11" s="32"/>
+      <c r="BH11" s="31"/>
+      <c r="BI11" s="32"/>
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="32"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="32"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="32"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="32"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="32"/>
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="33"/>
+      <c r="CA11" s="32"/>
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="32"/>
+      <c r="CD11" s="34"/>
+      <c r="CE11" s="32"/>
+      <c r="CF11" s="31"/>
+      <c r="CG11" s="32"/>
+      <c r="CH11" s="33"/>
+      <c r="CI11" s="32"/>
+      <c r="CJ11" s="31"/>
+      <c r="CK11" s="32"/>
+      <c r="CL11" s="31"/>
+      <c r="CM11" s="32"/>
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="32"/>
+      <c r="CP11" s="31"/>
+      <c r="CQ11" s="32"/>
+      <c r="CR11" s="31"/>
+      <c r="CS11" s="32"/>
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="32"/>
+      <c r="CV11" s="31"/>
+      <c r="CW11" s="32"/>
+      <c r="CX11" s="31"/>
+      <c r="CY11" s="30"/>
+      <c r="CZ11" s="31"/>
+      <c r="DA11" s="30"/>
+      <c r="DB11" s="31"/>
+      <c r="DC11" s="30"/>
+      <c r="DD11" s="31"/>
+      <c r="DE11" s="30"/>
+      <c r="DF11" s="31"/>
+      <c r="DG11" s="30"/>
+      <c r="DH11" s="31"/>
+      <c r="DI11" s="30"/>
+      <c r="DJ11" s="31"/>
+      <c r="DK11" s="31"/>
+      <c r="DL11" s="31"/>
+      <c r="DM11" s="31"/>
+      <c r="DN11" s="35"/>
+      <c r="DO11" s="31"/>
+      <c r="DP11" s="36"/>
+      <c r="DQ11" s="36"/>
+      <c r="DR11" s="36"/>
+      <c r="DS11" s="36"/>
+      <c r="DT11" s="36"/>
     </row>
     <row r="12" spans="1:124" ht="77.25" customHeight="1">
       <c r="A12" s="12"/>
@@ -2690,20 +2709,22 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
       <c r="J12" s="18"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -2724,22 +2745,24 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="18"/>
       <c r="I13" s="19"/>
       <c r="J13" s="18"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2762,20 +2785,22 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="18"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2798,20 +2823,22 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="18"/>
       <c r="I15" s="19"/>
       <c r="J15" s="18"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2834,20 +2861,22 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
       <c r="J16" s="18"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2869,20 +2898,22 @@
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="18"/>
       <c r="I17" s="19"/>
       <c r="J17" s="18"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2905,20 +2936,22 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="18"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2941,20 +2974,22 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
       <c r="J19" s="18"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2977,20 +3012,22 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="18"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
@@ -3011,24 +3048,26 @@
       <c r="B21" s="3">
         <v>14</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="40" t="s">
+      <c r="C21" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>59</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="18"/>
       <c r="I21" s="19"/>
       <c r="J21" s="18"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="11"/>
@@ -3051,20 +3090,22 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
       <c r="J22" s="18"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
@@ -3087,20 +3128,22 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="18"/>
       <c r="I23" s="19"/>
       <c r="J23" s="18"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="11"/>
@@ -3123,20 +3166,22 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="18"/>
       <c r="I24" s="19"/>
       <c r="J24" s="18"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="11"/>
@@ -3159,20 +3204,22 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="18"/>
       <c r="I25" s="19"/>
       <c r="J25" s="18"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -3195,20 +3242,22 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="18"/>
       <c r="I26" s="19"/>
       <c r="J26" s="18"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -3231,20 +3280,22 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="18"/>
       <c r="I27" s="19"/>
       <c r="J27" s="18"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="11"/>
@@ -3265,24 +3316,26 @@
       <c r="B28" s="3">
         <v>21</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>94</v>
+      <c r="C28" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="18"/>
       <c r="I28" s="19"/>
       <c r="J28" s="18"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="11"/>
@@ -3305,20 +3358,22 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
       <c r="J29" s="18"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="11"/>
@@ -3341,20 +3396,22 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="18"/>
       <c r="I30" s="25"/>
       <c r="J30" s="18"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="11"/>
@@ -3377,20 +3434,22 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
       <c r="J31" s="18"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="11"/>
@@ -3413,20 +3472,22 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
       <c r="J32" s="18"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="11"/>
@@ -3449,20 +3510,22 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
       <c r="J33" s="18"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="6"/>
       <c r="O33" s="11"/>
@@ -3483,24 +3546,26 @@
       <c r="B34" s="3">
         <v>27</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="18"/>
       <c r="I34" s="19"/>
       <c r="J34" s="18"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="6"/>
       <c r="O34" s="11"/>
@@ -3523,20 +3588,22 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="18"/>
       <c r="I35" s="19"/>
       <c r="J35" s="18"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
@@ -3559,20 +3626,22 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="18"/>
       <c r="I36" s="19"/>
       <c r="J36" s="18"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="6"/>
       <c r="O36" s="11"/>
@@ -3595,20 +3664,22 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="18"/>
       <c r="I37" s="19"/>
       <c r="J37" s="18"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M37" s="11"/>
       <c r="N37" s="6"/>
       <c r="O37" s="11"/>
@@ -3631,20 +3702,22 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="18"/>
       <c r="I38" s="19"/>
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M38" s="11"/>
       <c r="N38" s="6"/>
       <c r="O38" s="11"/>
@@ -3667,20 +3740,22 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
       <c r="J39" s="18"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M39" s="11"/>
       <c r="N39" s="6"/>
       <c r="O39" s="11"/>
@@ -3703,20 +3778,22 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="18"/>
       <c r="I40" s="19"/>
       <c r="J40" s="18"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M40" s="11"/>
       <c r="N40" s="6"/>
       <c r="O40" s="11"/>
@@ -3739,20 +3816,22 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
       <c r="J41" s="18"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M41" s="11"/>
       <c r="N41" s="6"/>
       <c r="O41" s="11"/>
@@ -3775,20 +3854,22 @@
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="18"/>
       <c r="I42" s="19"/>
       <c r="J42" s="18"/>
       <c r="K42" s="10"/>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M42" s="11"/>
       <c r="N42" s="6"/>
       <c r="O42" s="11"/>
@@ -3811,20 +3892,22 @@
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
       <c r="J43" s="18"/>
       <c r="K43" s="10"/>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M43" s="11"/>
       <c r="N43" s="6"/>
       <c r="O43" s="11"/>
@@ -3847,20 +3930,22 @@
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
       <c r="J44" s="18"/>
       <c r="K44" s="10"/>
-      <c r="L44" s="6"/>
+      <c r="L44" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M44" s="11"/>
       <c r="N44" s="6"/>
       <c r="O44" s="11"/>
@@ -3883,20 +3968,22 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
       <c r="J45" s="18"/>
       <c r="K45" s="10"/>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M45" s="11"/>
       <c r="N45" s="6"/>
       <c r="O45" s="11"/>
@@ -3919,20 +4006,22 @@
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
       <c r="J46" s="18"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="6"/>
+      <c r="L46" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M46" s="11"/>
       <c r="N46" s="6"/>
       <c r="O46" s="11"/>
@@ -3955,20 +4044,22 @@
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="18"/>
       <c r="I47" s="19"/>
       <c r="J47" s="18"/>
       <c r="K47" s="10"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M47" s="11"/>
       <c r="N47" s="6"/>
       <c r="O47" s="11"/>
@@ -3991,20 +4082,22 @@
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="18"/>
       <c r="I48" s="19"/>
       <c r="J48" s="18"/>
       <c r="K48" s="10"/>
-      <c r="L48" s="6"/>
+      <c r="L48" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M48" s="11"/>
       <c r="N48" s="6"/>
       <c r="O48" s="11"/>
@@ -4539,6 +4632,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -4546,12 +4645,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N50 T12:T50 P12:P50 R12:R50 L12:L50" xr:uid="{00000000-0002-0000-0100-000000000000}">
